--- a/Дом задание_6.xlsx
+++ b/Дом задание_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing\Домашние задания\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing\репозиторий\MyFiestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="126">
   <si>
     <t>passed</t>
   </si>
@@ -602,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +709,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -802,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -887,6 +896,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -902,21 +926,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1316,7 +1329,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1360,7 +1373,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$45,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1405,7 +1418,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$45,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1478,7 +1491,9 @@
         <v>8</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="40">
+        <v>43753</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
       <c r="Q4" s="11"/>
@@ -1532,43 +1547,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="37"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="37"/>
+      <c r="R6" s="30"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="37"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1578,29 +1593,29 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="12"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="39"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="37"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="37"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="37"/>
+      <c r="R7" s="30"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="37"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2023,7 +2038,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2057,7 +2074,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
@@ -2093,7 +2112,9 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="11"/>
@@ -2129,7 +2150,9 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
@@ -2165,7 +2188,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="20"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="11"/>
@@ -2201,7 +2226,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="41" t="s">
+        <v>1</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="11"/>
@@ -2237,7 +2264,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="20"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="41" t="s">
+        <v>1</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -2273,7 +2302,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -2307,7 +2338,9 @@
       <c r="I27" s="21"/>
       <c r="J27" s="20"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="11"/>
@@ -2341,7 +2374,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="11"/>
@@ -2375,7 +2410,9 @@
       <c r="I29" s="21"/>
       <c r="J29" s="20"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="11"/>
@@ -2411,7 +2448,9 @@
       <c r="I30" s="21"/>
       <c r="J30" s="20"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="11"/>
@@ -3410,6 +3449,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3417,15 +3462,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L45 R8:R45 P8:P45 T8:T45 N8:N45">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N45 R8:R45 P8:P45 T8:T45 L8:L45">
       <formula1>Result</formula1>
     </dataValidation>
   </dataValidations>
